--- a/temperaturas-salvas.xlsx
+++ b/temperaturas-salvas.xlsx
@@ -393,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -543,6 +543,87 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23º</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sensação: 23°</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>18:25:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>23º</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sensação: 23°</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18:28:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>23º</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sensação: 23°</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18:30:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temperaturas-salvas.xlsx
+++ b/temperaturas-salvas.xlsx
@@ -393,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -624,6 +624,33 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>23º</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sensação: 23°</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28/06/2025</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>18:33:52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
